--- a/data/MEZA PEÑA CARLOS ROBERTO.xlsx
+++ b/data/MEZA PEÑA CARLOS ROBERTO.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
-    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="49" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="26" customWidth="1" min="5" max="5"/>
@@ -976,84 +976,864 @@
       </c>
     </row>
     <row r="9">
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="L9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="M9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="N9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="O9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="P9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="Q9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
-        </is>
-      </c>
-      <c r="R9" s="3" t="inlineStr">
-        <is>
-          <t>0 de 7</t>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GRANIMUNDO S.A.</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LINO TUMBACO VICENTE JAVIER</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>33.53</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PAREDES ORTIZ MARIA INES</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>RENOVA&amp;DISEÑA S.A.</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>172.99</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ROCA REYNA PAUL DAVID</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>0 de 20</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>1 de 20</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>0 de 20</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>0 de 20</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>0 de 20</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>0 de 20</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>0 de 20</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>0 de 20</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>0 de 20</t>
+        </is>
+      </c>
+      <c r="L22" s="3" t="inlineStr">
+        <is>
+          <t>0 de 20</t>
+        </is>
+      </c>
+      <c r="M22" s="3" t="inlineStr">
+        <is>
+          <t>1 de 20</t>
+        </is>
+      </c>
+      <c r="N22" s="3" t="inlineStr">
+        <is>
+          <t>0 de 20</t>
+        </is>
+      </c>
+      <c r="O22" s="3" t="inlineStr">
+        <is>
+          <t>0 de 20</t>
+        </is>
+      </c>
+      <c r="P22" s="3" t="inlineStr">
+        <is>
+          <t>0 de 20</t>
+        </is>
+      </c>
+      <c r="Q22" s="3" t="inlineStr">
+        <is>
+          <t>0 de 20</t>
+        </is>
+      </c>
+      <c r="R22" s="3" t="inlineStr">
+        <is>
+          <t>0 de 20</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,11 +1857,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
-    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="49" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1312,19 +2092,370 @@
       </c>
     </row>
     <row r="9">
-      <c r="C9" s="4" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>489.11</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GRANIMUNDO S.A.</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>1382.33</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LINO TUMBACO VICENTE JAVIER</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>835.22</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>33.53</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>89.76000000000001</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PAREDES ORTIZ MARIA INES</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>8791.290000000001</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>RENOVA&amp;DISEÑA S.A.</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>253.44</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>96.37</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>172.99</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ROCA REYNA PAUL DAVID</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1391.04</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>4780.84</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="4" t="n">
+        <v>3203.07</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>14896.46</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>96.37</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>206.52</v>
+      </c>
+      <c r="G22" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/MEZA PEÑA CARLOS ROBERTO.xlsx
+++ b/data/MEZA PEÑA CARLOS ROBERTO.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="VENTAS POR GRUPO" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="VENTA MENSUAL" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CUMPLIMIENTO MENSUAL" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,7 +59,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -68,6 +69,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -435,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +449,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
-    <col width="49" customWidth="1" min="2" max="2"/>
+    <col width="53" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="26" customWidth="1" min="5" max="5"/>
@@ -683,7 +688,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ARBOLEDA ZAMBRANO ROBERTO ANTONIO</t>
+          <t>ARBIZACONSTRUC S.A.</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -743,7 +748,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARELLANO CEDEÑO DANNY MARCELO</t>
+          <t>ARBOLEDA ZAMBRANO ROBERTO ANTONIO</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -803,7 +808,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ARMIJOS BARCIA FRACISCO ANTONIO</t>
+          <t>ARELLANO CEDEÑO DANNY MARCELO</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -863,7 +868,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BAESCORP S.A.S.</t>
+          <t>ARMIJOS BARCIA FRACISCO ANTONIO</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -923,7 +928,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHANGKUON AYON JOSE CRISTOBAL</t>
+          <t>BAESCORP S.A.S.</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -983,7 +988,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
+          <t>CHANGKUON AYON JOSE CRISTOBAL</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -1043,7 +1048,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GRANIMUNDO S.A.</t>
+          <t>DELGADO COPPIANO JORGE RODOLFO</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -1103,7 +1108,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LINO TUMBACO VICENTE JAVIER</t>
+          <t>DELGADO LOOR JORGE ARTURO</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -1163,7 +1168,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
+          <t>DISALME CIA. LTDA.</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -1223,7 +1228,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
+          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -1257,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>33.53</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2" t="n">
         <v>0</v>
@@ -1283,7 +1288,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
+          <t>FRANQUICIA DISTRIBUIDORA SANTA MARIA FRADISAMA S.A.</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1343,7 +1348,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PAREDES ORTIZ MARIA INES</t>
+          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1403,14 +1408,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RENOVA&amp;DISEÑA S.A.</t>
+          <t>GONZALEZ CARDENAS ERNESTO PAOLO</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>172.99</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -1463,7 +1468,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ROCA REYNA PAUL DAVID</t>
+          <t>GRANIMUNDO S.A.</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1523,7 +1528,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
+          <t>LINO TUMBACO VICENTE JAVIER</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1583,7 +1588,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
+          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1643,7 +1648,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1703,137 +1708,797 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PAREDES ORTIZ MARIA INES</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RENOVA&amp;DISEÑA S.A.</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>1388.02</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>REYES AGUILERA JESSICA ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ROCA REYNA PAUL DAVID</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>457.92</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SUMBA GARCIA MARCOS ANTONIO</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>VERA ARCE MARIA ISABEL</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>0 de 20</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>1 de 20</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>0 de 20</t>
-        </is>
-      </c>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>0 de 20</t>
-        </is>
-      </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>0 de 20</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="inlineStr">
-        <is>
-          <t>0 de 20</t>
-        </is>
-      </c>
-      <c r="I22" s="3" t="inlineStr">
-        <is>
-          <t>0 de 20</t>
-        </is>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>0 de 20</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr">
-        <is>
-          <t>0 de 20</t>
-        </is>
-      </c>
-      <c r="L22" s="3" t="inlineStr">
-        <is>
-          <t>0 de 20</t>
-        </is>
-      </c>
-      <c r="M22" s="3" t="inlineStr">
-        <is>
-          <t>1 de 20</t>
-        </is>
-      </c>
-      <c r="N22" s="3" t="inlineStr">
-        <is>
-          <t>0 de 20</t>
-        </is>
-      </c>
-      <c r="O22" s="3" t="inlineStr">
-        <is>
-          <t>0 de 20</t>
-        </is>
-      </c>
-      <c r="P22" s="3" t="inlineStr">
-        <is>
-          <t>0 de 20</t>
-        </is>
-      </c>
-      <c r="Q22" s="3" t="inlineStr">
-        <is>
-          <t>0 de 20</t>
-        </is>
-      </c>
-      <c r="R22" s="3" t="inlineStr">
-        <is>
-          <t>0 de 20</t>
+      <c r="C32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>0 de 31</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>1 de 31</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>0 de 31</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>0 de 31</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>0 de 31</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="inlineStr">
+        <is>
+          <t>0 de 31</t>
+        </is>
+      </c>
+      <c r="I33" s="3" t="inlineStr">
+        <is>
+          <t>0 de 31</t>
+        </is>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>0 de 31</t>
+        </is>
+      </c>
+      <c r="K33" s="3" t="inlineStr">
+        <is>
+          <t>0 de 31</t>
+        </is>
+      </c>
+      <c r="L33" s="3" t="inlineStr">
+        <is>
+          <t>0 de 31</t>
+        </is>
+      </c>
+      <c r="M33" s="3" t="inlineStr">
+        <is>
+          <t>1 de 31</t>
+        </is>
+      </c>
+      <c r="N33" s="3" t="inlineStr">
+        <is>
+          <t>0 de 31</t>
+        </is>
+      </c>
+      <c r="O33" s="3" t="inlineStr">
+        <is>
+          <t>0 de 31</t>
+        </is>
+      </c>
+      <c r="P33" s="3" t="inlineStr">
+        <is>
+          <t>0 de 31</t>
+        </is>
+      </c>
+      <c r="Q33" s="3" t="inlineStr">
+        <is>
+          <t>0 de 31</t>
+        </is>
+      </c>
+      <c r="R33" s="3" t="inlineStr">
+        <is>
+          <t>0 de 31</t>
         </is>
       </c>
     </row>
@@ -1848,7 +2513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1857,11 +2522,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
-    <col width="49" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="53" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1878,22 +2543,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>octubre</t>
+          <t>noviembre</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>noviembre</t>
+          <t>diciembre</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>diciembre</t>
+          <t>enero</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>enero</t>
+          <t>febrero</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1941,13 +2606,13 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0</v>
+        <v>489.11</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>489.11</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>388.8</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0</v>
@@ -1964,7 +2629,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ARBOLEDA ZAMBRANO ROBERTO ANTONIO</t>
+          <t>ARBIZACONSTRUC S.A.</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -1991,11 +2656,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARELLANO CEDEÑO DANNY MARCELO</t>
+          <t>ARBOLEDA ZAMBRANO ROBERTO ANTONIO</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>86.5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -2018,7 +2683,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ARMIJOS BARCIA FRACISCO ANTONIO</t>
+          <t>ARELLANO CEDEÑO DANNY MARCELO</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -2045,7 +2710,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BAESCORP S.A.S.</t>
+          <t>ARMIJOS BARCIA FRACISCO ANTONIO</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -2072,7 +2737,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHANGKUON AYON JOSE CRISTOBAL</t>
+          <t>BAESCORP S.A.S.</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -2099,7 +2764,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
+          <t>CHANGKUON AYON JOSE CRISTOBAL</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -2126,11 +2791,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GRANIMUNDO S.A.</t>
+          <t>DELGADO COPPIANO JORGE RODOLFO</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1382.33</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -2153,7 +2818,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LINO TUMBACO VICENTE JAVIER</t>
+          <t>DELGADO LOOR JORGE ARTURO</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -2180,7 +2845,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
+          <t>DISALME CIA. LTDA.</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -2207,20 +2872,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
+          <t>FERRETERIA UNIDA ZAMBRANO FERRUZAM CIA. LTDA.</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>835.22</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>33.53</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>0</v>
@@ -2234,11 +2899,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
+          <t>FRANQUICIA DISTRIBUIDORA SANTA MARIA FRADISAMA S.A.</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>89.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -2261,14 +2926,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PAREDES ORTIZ MARIA INES</t>
+          <t>FREILE FERRIN FRECIA NOEMI LOURDE</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>8791.290000000001</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
@@ -2288,20 +2953,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RENOVA&amp;DISEÑA S.A.</t>
+          <t>GONZALEZ CARDENAS ERNESTO PAOLO</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>253.44</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>96.37</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>172.99</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>0</v>
@@ -2315,17 +2980,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ROCA REYNA PAUL DAVID</t>
+          <t>GRANIMUNDO S.A.</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>1391.04</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>4780.84</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0</v>
+        <v>2198.58</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -2342,7 +3007,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
+          <t>LINO TUMBACO VICENTE JAVIER</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -2352,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0</v>
+        <v>1971.92</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>0</v>
@@ -2369,7 +3034,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
+          <t>MANABITA DE REPUESTOS MANARECO C LTDA</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -2396,17 +3061,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+          <t>MATERIALES PARA DECORACION DECORCASA CIA. LTDA.</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0</v>
+        <v>835.22</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0</v>
+        <v>3124.48</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>0</v>
@@ -2423,40 +3088,487 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>MOREIRA MOREIRA PATRICIO IGNACIO</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>5875.71</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PAREDES ORTIZ MARIA INES</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>8791.290000000001</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>2719.84</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RENOVA&amp;DISEÑA S.A.</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>96.37</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>1442.48</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>1388.02</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>REYES AGUILERA JESSICA ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ROCA REYNA PAUL DAVID</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>4780.84</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>457.92</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SOLORZANO BRAVO TERESA CONCEPCION</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SUMBA GARCIA MARCOS ANTONIO</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TUTIVEN PAREDES MARCIA PIEDAD</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>VACA CANCHINGRE FATIMA YAQUELINE</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>VERA ARCE MARIA ISABEL</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ZAMBRANO FERNANDEZ JOSE LUIS</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>ZAMBRANO REYNA JOSE ALEJANDRO</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" s="4" t="n">
-        <v>3203.07</v>
-      </c>
-      <c r="D22" s="4" t="n">
+      <c r="C32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" s="4" t="n">
         <v>14896.46</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="D33" s="4" t="n">
         <v>96.37</v>
       </c>
-      <c r="F22" s="4" t="n">
-        <v>206.52</v>
-      </c>
-      <c r="G22" s="4" t="n">
-        <v>0</v>
+      <c r="E33" s="4" t="n">
+        <v>17721.81</v>
+      </c>
+      <c r="F33" s="4" t="n">
+        <v>1845.94</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="26" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASESOR</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GRUPO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PRESUPUESTO</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>VENTA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>POR CUMPLIR</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CUMPLIMIENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OTROS</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>457.92</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>-457.92</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PANELES PVC Y PU</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MEZA PEÑA CARLOS ROBERTO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PORCELANATO</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>10350</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1388.02</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>8961.98</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.1341082125603865</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>10465</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1845.94</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>8619.059999999999</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.1763917821309126</v>
       </c>
     </row>
   </sheetData>
